--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H2">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N2">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q2">
-        <v>15.69513505452888</v>
+        <v>24.70133014371433</v>
       </c>
       <c r="R2">
-        <v>15.69513505452888</v>
+        <v>222.311971293429</v>
       </c>
       <c r="S2">
-        <v>5.90541729711081E-05</v>
+        <v>6.75557031697129E-05</v>
       </c>
       <c r="T2">
-        <v>5.90541729711081E-05</v>
+        <v>6.75557031697129E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H3">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N3">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q3">
-        <v>333.1694193800011</v>
+        <v>363.6066823947327</v>
       </c>
       <c r="R3">
-        <v>333.1694193800011</v>
+        <v>3272.460141552594</v>
       </c>
       <c r="S3">
-        <v>0.001253575993605289</v>
+        <v>0.0009944284361801173</v>
       </c>
       <c r="T3">
-        <v>0.001253575993605289</v>
+        <v>0.0009944284361801173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H4">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N4">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q4">
-        <v>188.826876601557</v>
+        <v>338.7847220900803</v>
       </c>
       <c r="R4">
-        <v>188.826876601557</v>
+        <v>3049.062498810723</v>
       </c>
       <c r="S4">
-        <v>0.0007104758891007296</v>
+        <v>0.0009265428214105742</v>
       </c>
       <c r="T4">
-        <v>0.0007104758891007296</v>
+        <v>0.0009265428214105742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H5">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N5">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q5">
-        <v>195.7472676161296</v>
+        <v>212.7990664037996</v>
       </c>
       <c r="R5">
-        <v>195.7472676161296</v>
+        <v>1915.191597634197</v>
       </c>
       <c r="S5">
-        <v>0.0007365144014539155</v>
+        <v>0.0005819844713271555</v>
       </c>
       <c r="T5">
-        <v>0.0007365144014539155</v>
+        <v>0.0005819844713271554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H6">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N6">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q6">
-        <v>45.89732486388798</v>
+        <v>51.81557417989233</v>
       </c>
       <c r="R6">
-        <v>45.89732486388798</v>
+        <v>466.340167619031</v>
       </c>
       <c r="S6">
-        <v>0.0001726922738801842</v>
+        <v>0.000141710487997983</v>
       </c>
       <c r="T6">
-        <v>0.0001726922738801842</v>
+        <v>0.000141710487997983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H7">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N7">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q7">
-        <v>70.89801873745382</v>
+        <v>77.85774666751333</v>
       </c>
       <c r="R7">
-        <v>70.89801873745382</v>
+        <v>700.71972000762</v>
       </c>
       <c r="S7">
-        <v>0.0002667593395841688</v>
+        <v>0.0002129332628134466</v>
       </c>
       <c r="T7">
-        <v>0.0002667593395841688</v>
+        <v>0.0002129332628134466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H8">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N8">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q8">
-        <v>2.672212954869657</v>
+        <v>4.211895326290555</v>
       </c>
       <c r="R8">
-        <v>2.672212954869657</v>
+        <v>37.90705793661499</v>
       </c>
       <c r="S8">
-        <v>1.005441020445207E-05</v>
+        <v>1.151911855715151E-05</v>
       </c>
       <c r="T8">
-        <v>1.005441020445207E-05</v>
+        <v>1.151911855715151E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H9">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N9">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q9">
-        <v>56.72456054315648</v>
+        <v>61.99962824982111</v>
       </c>
       <c r="R9">
-        <v>56.72456054315648</v>
+        <v>557.99665424839</v>
       </c>
       <c r="S9">
-        <v>0.0002134305947917954</v>
+        <v>0.0001695628720521869</v>
       </c>
       <c r="T9">
-        <v>0.0002134305947917954</v>
+        <v>0.0001695628720521869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H10">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N10">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q10">
-        <v>32.14917387643982</v>
+        <v>57.76716392550055</v>
       </c>
       <c r="R10">
-        <v>32.14917387643982</v>
+        <v>519.9044753295049</v>
       </c>
       <c r="S10">
-        <v>0.0001209637807117612</v>
+        <v>0.0001579874993128789</v>
       </c>
       <c r="T10">
-        <v>0.0001209637807117612</v>
+        <v>0.0001579874993128789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H11">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N11">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q11">
-        <v>33.32742168747528</v>
+        <v>36.28498497896611</v>
       </c>
       <c r="R11">
-        <v>33.32742168747528</v>
+        <v>326.5648648106949</v>
       </c>
       <c r="S11">
-        <v>0.0001253970302374249</v>
+        <v>9.9235857360511E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001253970302374249</v>
+        <v>9.923585736051098E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H12">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N12">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q12">
-        <v>7.814359396655998</v>
+        <v>8.835223587053889</v>
       </c>
       <c r="R12">
-        <v>7.814359396655998</v>
+        <v>79.51701228348499</v>
       </c>
       <c r="S12">
-        <v>2.940213829732982E-05</v>
+        <v>2.416346563575412E-05</v>
       </c>
       <c r="T12">
-        <v>2.940213829732982E-05</v>
+        <v>2.416346563575412E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H13">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N13">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q13">
-        <v>12.07091264182197</v>
+        <v>13.27574982385556</v>
       </c>
       <c r="R13">
-        <v>12.07091264182197</v>
+        <v>119.4817484147</v>
       </c>
       <c r="S13">
-        <v>4.541775273629128E-05</v>
+        <v>3.630786719734498E-05</v>
       </c>
       <c r="T13">
-        <v>4.541775273629128E-05</v>
+        <v>3.630786719734498E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H14">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N14">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q14">
-        <v>1484.00036524536</v>
+        <v>3269.445991615797</v>
       </c>
       <c r="R14">
-        <v>1484.00036524536</v>
+        <v>29425.01392454217</v>
       </c>
       <c r="S14">
-        <v>0.005583667420121965</v>
+        <v>0.008941612522644188</v>
       </c>
       <c r="T14">
-        <v>0.005583667420121965</v>
+        <v>0.008941612522644186</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H15">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N15">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q15">
-        <v>31501.70663270838</v>
+        <v>48126.65566443939</v>
       </c>
       <c r="R15">
-        <v>31501.70663270838</v>
+        <v>433139.9009799545</v>
       </c>
       <c r="S15">
-        <v>0.1185276345765669</v>
+        <v>0.1316216594694266</v>
       </c>
       <c r="T15">
-        <v>0.1185276345765669</v>
+        <v>0.1316216594694266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H16">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N16">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q16">
-        <v>17853.88611638566</v>
+        <v>44841.24317248324</v>
       </c>
       <c r="R16">
-        <v>17853.88611638566</v>
+        <v>403571.1885523492</v>
       </c>
       <c r="S16">
-        <v>0.06717664265139724</v>
+        <v>0.1226363801421457</v>
       </c>
       <c r="T16">
-        <v>0.06717664265139724</v>
+        <v>0.1226363801421457</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H17">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N17">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q17">
-        <v>18508.2202624498</v>
+        <v>28165.89433142442</v>
       </c>
       <c r="R17">
-        <v>18508.2202624498</v>
+        <v>253493.0489828197</v>
       </c>
       <c r="S17">
-        <v>0.06963862604359645</v>
+        <v>0.0770309447261648</v>
       </c>
       <c r="T17">
-        <v>0.06963862604359645</v>
+        <v>0.0770309447261648</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H18">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N18">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q18">
-        <v>4339.666184786405</v>
+        <v>6858.26311053248</v>
       </c>
       <c r="R18">
-        <v>4339.666184786405</v>
+        <v>61724.36799479232</v>
       </c>
       <c r="S18">
-        <v>0.01632833337355043</v>
+        <v>0.01875667359851965</v>
       </c>
       <c r="T18">
-        <v>0.01632833337355043</v>
+        <v>0.01875667359851965</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H19">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N19">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q19">
-        <v>6703.522163779942</v>
+        <v>10305.18179698572</v>
       </c>
       <c r="R19">
-        <v>6703.522163779942</v>
+        <v>92746.6361728715</v>
       </c>
       <c r="S19">
-        <v>0.02522252634336446</v>
+        <v>0.02818365644832488</v>
       </c>
       <c r="T19">
-        <v>0.02522252634336446</v>
+        <v>0.02818365644832488</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H20">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N20">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q20">
-        <v>3153.170663855253</v>
+        <v>4754.701639515137</v>
       </c>
       <c r="R20">
-        <v>3153.170663855253</v>
+        <v>42792.31475563622</v>
       </c>
       <c r="S20">
-        <v>0.01186405119444965</v>
+        <v>0.01300364032021038</v>
       </c>
       <c r="T20">
-        <v>0.01186405119444965</v>
+        <v>0.01300364032021038</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H21">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N21">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q21">
-        <v>66934.11911607419</v>
+        <v>69989.80536118326</v>
       </c>
       <c r="R21">
-        <v>66934.11911607419</v>
+        <v>629908.2482506493</v>
       </c>
       <c r="S21">
-        <v>0.2518448572896366</v>
+        <v>0.1914152188718974</v>
       </c>
       <c r="T21">
-        <v>0.2518448572896366</v>
+        <v>0.1914152188718974</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H22">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N22">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q22">
-        <v>37935.53644354529</v>
+        <v>65211.88390230414</v>
       </c>
       <c r="R22">
-        <v>37935.53644354529</v>
+        <v>586906.9551207373</v>
       </c>
       <c r="S22">
-        <v>0.1427354223525759</v>
+        <v>0.1783480746344696</v>
       </c>
       <c r="T22">
-        <v>0.1427354223525759</v>
+        <v>0.1783480746344696</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H23">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N23">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q23">
-        <v>39325.85094888376</v>
+        <v>40961.19779909525</v>
       </c>
       <c r="R23">
-        <v>39325.85094888376</v>
+        <v>368650.7801918573</v>
       </c>
       <c r="S23">
-        <v>0.1479665893987497</v>
+        <v>0.1120248384962268</v>
       </c>
       <c r="T23">
-        <v>0.1479665893987497</v>
+        <v>0.1120248384962268</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H24">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N24">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q24">
-        <v>9220.825294426881</v>
+        <v>9973.859467169003</v>
       </c>
       <c r="R24">
-        <v>9220.825294426881</v>
+        <v>89764.73520452101</v>
       </c>
       <c r="S24">
-        <v>0.03469407622053743</v>
+        <v>0.02727752253422504</v>
       </c>
       <c r="T24">
-        <v>0.03469407622053743</v>
+        <v>0.02727752253422504</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H25">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N25">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O25">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P25">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q25">
-        <v>14243.49341574429</v>
+        <v>14986.65673367314</v>
       </c>
       <c r="R25">
-        <v>14243.49341574429</v>
+        <v>134879.9106030583</v>
       </c>
       <c r="S25">
-        <v>0.05359225778968304</v>
+        <v>0.04098702895414857</v>
       </c>
       <c r="T25">
-        <v>0.05359225778968304</v>
+        <v>0.04098702895414857</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H26">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N26">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O26">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P26">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q26">
-        <v>236.9905288192805</v>
+        <v>356.2447398748971</v>
       </c>
       <c r="R26">
-        <v>236.9905288192805</v>
+        <v>3206.202658874074</v>
       </c>
       <c r="S26">
-        <v>0.0008916953968720257</v>
+        <v>0.0009742942490440833</v>
       </c>
       <c r="T26">
-        <v>0.0008916953968720257</v>
+        <v>0.0009742942490440833</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H27">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N27">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O27">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P27">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q27">
-        <v>5030.730644302136</v>
+        <v>5243.967318069618</v>
       </c>
       <c r="R27">
-        <v>5030.730644302136</v>
+        <v>47195.70586262656</v>
       </c>
       <c r="S27">
-        <v>0.01892851744234896</v>
+        <v>0.0143417337248672</v>
       </c>
       <c r="T27">
-        <v>0.01892851744234896</v>
+        <v>0.0143417337248672</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H28">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N28">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O28">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P28">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q28">
-        <v>2851.213524803867</v>
+        <v>4885.982839482092</v>
       </c>
       <c r="R28">
-        <v>2851.213524803867</v>
+        <v>43973.84555533883</v>
       </c>
       <c r="S28">
-        <v>0.01072791384631921</v>
+        <v>0.01336268146192753</v>
       </c>
       <c r="T28">
-        <v>0.01072791384631921</v>
+        <v>0.01336268146192753</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H29">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N29">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O29">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P29">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q29">
-        <v>2955.708778937186</v>
+        <v>3069.00671403452</v>
       </c>
       <c r="R29">
-        <v>2955.708778937186</v>
+        <v>27621.06042631068</v>
       </c>
       <c r="S29">
-        <v>0.01112108541131752</v>
+        <v>0.008393430855460645</v>
       </c>
       <c r="T29">
-        <v>0.01112108541131752</v>
+        <v>0.008393430855460645</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H30">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N30">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O30">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P30">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q30">
-        <v>693.0320289116892</v>
+        <v>747.2887345656318</v>
       </c>
       <c r="R30">
-        <v>693.0320289116892</v>
+        <v>6725.598611090685</v>
       </c>
       <c r="S30">
-        <v>0.002607587202510847</v>
+        <v>0.002043761029898732</v>
       </c>
       <c r="T30">
-        <v>0.002607587202510847</v>
+        <v>0.002043761029898732</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H31">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N31">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O31">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P31">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q31">
-        <v>1070.532932303767</v>
+        <v>1122.871219786191</v>
       </c>
       <c r="R31">
-        <v>1070.532932303767</v>
+        <v>10105.84097807572</v>
       </c>
       <c r="S31">
-        <v>0.004027963871345729</v>
+        <v>0.003070942106370426</v>
       </c>
       <c r="T31">
-        <v>0.004027963871345729</v>
+        <v>0.003070942106370426</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H32">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N32">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O32">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P32">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q32">
-        <v>13.62347456639902</v>
+        <v>35.14558619063711</v>
       </c>
       <c r="R32">
-        <v>13.62347456639902</v>
+        <v>316.310275715734</v>
       </c>
       <c r="S32">
-        <v>5.125938838477672E-05</v>
+        <v>9.611971398327382E-05</v>
       </c>
       <c r="T32">
-        <v>5.125938838477672E-05</v>
+        <v>9.611971398327381E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H33">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N33">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O33">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P33">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q33">
-        <v>289.1931222927358</v>
+        <v>517.3474432852582</v>
       </c>
       <c r="R33">
-        <v>289.1931222927358</v>
+        <v>4656.126989567325</v>
       </c>
       <c r="S33">
-        <v>0.001088111736955211</v>
+        <v>0.001414894263217738</v>
       </c>
       <c r="T33">
-        <v>0.001088111736955211</v>
+        <v>0.001414894263217738</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H34">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N34">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O34">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P34">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q34">
-        <v>163.9028999684575</v>
+        <v>482.0302218954731</v>
       </c>
       <c r="R34">
-        <v>163.9028999684575</v>
+        <v>4338.271997059258</v>
       </c>
       <c r="S34">
-        <v>0.0006166974780131357</v>
+        <v>0.00131830514388262</v>
       </c>
       <c r="T34">
-        <v>0.0006166974780131357</v>
+        <v>0.00131830514388262</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H35">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N35">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O35">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P35">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q35">
-        <v>169.9098422884194</v>
+        <v>302.7751091163402</v>
       </c>
       <c r="R35">
-        <v>169.9098422884194</v>
+        <v>2724.975982047062</v>
       </c>
       <c r="S35">
-        <v>0.0006392990682229719</v>
+        <v>0.0008280600793413479</v>
       </c>
       <c r="T35">
-        <v>0.0006392990682229719</v>
+        <v>0.0008280600793413478</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H36">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N36">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O36">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P36">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q36">
-        <v>39.83916263074809</v>
+        <v>73.72431839749179</v>
       </c>
       <c r="R36">
-        <v>39.83916263074809</v>
+        <v>663.518865577426</v>
       </c>
       <c r="S36">
-        <v>0.00014989796474172</v>
+        <v>0.0002016287439208099</v>
       </c>
       <c r="T36">
-        <v>0.00014989796474172</v>
+        <v>0.0002016287439208099</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H37">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N37">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O37">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P37">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q37">
-        <v>61.53991996386654</v>
+        <v>110.7776840433911</v>
       </c>
       <c r="R37">
-        <v>61.53991996386654</v>
+        <v>996.9991563905202</v>
       </c>
       <c r="S37">
-        <v>0.0002315487611637765</v>
+        <v>0.0003029660466672446</v>
       </c>
       <c r="T37">
-        <v>0.0002315487611637765</v>
+        <v>0.0003029660466672446</v>
       </c>
     </row>
   </sheetData>
